--- a/dados_transportadoras_vtex_completos.xlsx
+++ b/dados_transportadoras_vtex_completos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,45 +434,50 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>SELLER ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>TRANSPORTADORA</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>TEMPO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>CUSTO</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>PREÇO ORIGINAL</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>PREÇO ATUAL</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>DISPONIBILIDADE</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>IMPOSTO</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>OPÇÕES DE PAGAMENTO</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>CEP ATENDIDO</t>
         </is>
@@ -485,43 +490,46 @@
       <c r="B2" t="n">
         <v>2071060</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Retira - SC PALHOCA - Loja Palhoça (30)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1bd</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Grátis</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>283900</v>
-      </c>
       <c r="G2" t="n">
-        <v>283900</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>2839</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2839</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>American Express, Visa, Diners, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Atendido</t>
         </is>
@@ -534,43 +542,46 @@
       <c r="B3" t="n">
         <v>2071060</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Retira - SC SAO JOSE - Loja Campinas (1)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1bd</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Grátis</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>283900</v>
-      </c>
       <c r="G3" t="n">
-        <v>283900</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>2839</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2839</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>American Express, Visa, Diners, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Atendido</t>
         </is>
@@ -583,43 +594,46 @@
       <c r="B4" t="n">
         <v>2071060</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Entrega SC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4bd</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>R$ 29.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>283900</v>
-      </c>
       <c r="G4" t="n">
-        <v>283900</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>2839</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2839</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>American Express, Visa, Diners, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Atendido</t>
         </is>
@@ -630,11 +644,11 @@
         <v>88134360</v>
       </c>
       <c r="B5" t="n">
-        <v>100358954</v>
+        <v>2071060</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>pelegrin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -649,7 +663,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -659,12 +673,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>withoutStock</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -674,21 +688,24 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Atendido</t>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Não informado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22450200</v>
+        <v>88134360</v>
       </c>
       <c r="B6" t="n">
-        <v>2071060</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
+        <v>100358954</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -700,20 +717,24 @@
           <t>Não informado</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>303900</v>
-      </c>
-      <c r="G6" t="n">
-        <v>303900</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cannotBeDelivered</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>withoutStock</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -723,58 +744,662 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Não atendido</t>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Atendido</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22450200</v>
+        <v>88134360</v>
       </c>
       <c r="B7" t="n">
         <v>100358954</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>pelegrin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Rodonaves-Rodonaves Standard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>6bd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+          <t>R$ 27.40</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>209</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JadLog-JadLog Standard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6bd</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R$ 43.74</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>209</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Correios-Correios PAC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8bd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>R$ 83.61</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H9" t="n">
+        <v>209</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>88134360</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Correios-Correios Sedex</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4bd</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>R$ 151.14</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H10" t="n">
+        <v>209</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3039</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3039</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>cannotBeDelivered</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Não atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2071060</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>withoutStock</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B14" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>JadLog-JadLog Standard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6bd</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>R$ 67.85</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>209</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rodonaves-Rodonaves Standard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9bd</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>R$ 76.37</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>209</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Correios-Correios PAC</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8bd</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R$ 106.36</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H16" t="n">
+        <v>209</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LOGDI-LOGDI Standard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8bd</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R$ 157.60</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>209</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Atendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22450200</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100358954</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pelegrin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Correios-Correios Sedex</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4bd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R$ 213.75</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>277.24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>209</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Atendido</t>
         </is>

--- a/dados_transportadoras_vtex_completos.xlsx
+++ b/dados_transportadoras_vtex_completos.xlsx
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, Diners, WH Google Pay</t>
+          <t>American Express, Visa, Mastercard, Boleto Bancário, Hipercard, Elo, Vale, Pix, WH Google Pay, Diners</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
